--- a/biology/Zoologie/Aspidoscelis_gularis/Aspidoscelis_gularis.xlsx
+++ b/biology/Zoologie/Aspidoscelis_gularis/Aspidoscelis_gularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis gularis est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis gularis est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le Texas, l'Oklahoma et au Nouveau-Mexique ;
 au Mexique dans le Nord du Coahuila, le Nuevo León, le Tamaulipas, le San Luis Potosí, le Querétaro, le Veracruz, l'Aguascalientes et le Michoacán ;
 au Guatemala
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard atteint entre 16 et 27 centimètres. Ils sont bruns avec des lignes grises ou blanches longitudinales sur le corps. Le dessous du corps est blanc. La queue est longue, jusqu'à trois fois la longueur du corps.
-C'est un reptile diurne qui consomme divers insectes et autres arthropodes. La reproduction débute au printemps et les femelles pondent de 1 à 5 œufs au début de l'été[1].
+C'est un reptile diurne qui consomme divers insectes et autres arthropodes. La reproduction débute au printemps et les femelles pondent de 1 à 5 œufs au début de l'été.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2014) :
 Aspidoscelis gularis colossus (Dixon, Lieb &amp; Ketchersid, 1971)
 Aspidoscelis gularis gularis (Baird &amp; Girard, 1852)
 Aspidoscelis gularis pallidus (Duellman &amp; Zweifel, 1962)
@@ -613,7 +631,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1852 : Characteristics of some new reptiles in the Museum of the Smithsonian Institution, part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 125-129 (texte intégral).
 Cope, 1893 "1892" : A synopsis of the species of the teiid genus Cnemidophorus. Transactions of the American Philosophical Society, sér. 2, vol. 17, no 1, p. 27-52 (texte intégral).
